--- a/pabi_account_report/xlsx_template/xlsx_report_gl_receivable.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_receivable.xlsx
@@ -215,10 +215,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -313,7 +312,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,7 +328,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +344,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,7 +436,7 @@
   <dimension ref="A2:BB10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_receivable.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_receivable.xlsx
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">GL Receivable Report</t>
   </si>
   <si>
+    <t xml:space="preserve">Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fiscal Year From</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t xml:space="preserve">Activity Group Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Actvity Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actvity Code</t>
+    <t xml:space="preserve">Activity Group Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Code</t>
   </si>
   <si>
     <t xml:space="preserve">Activity Name</t>
@@ -303,7 +309,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,10 +318,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,10 +340,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -433,10 +431,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:BB10"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,226 +446,239 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="10" s="12" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="L12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="Q12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="R12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="S12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="T12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="U12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="V12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="W12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="X12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" s="9" t="s">
+      <c r="Y12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="Z12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="9" t="s">
+      <c r="AA12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AB12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="9" t="s">
+      <c r="AC12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AF10" s="9" t="s">
+      <c r="AD12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AG10" s="9" t="s">
+      <c r="AE12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AH10" s="9" t="s">
+      <c r="AF12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI10" s="9" t="s">
+      <c r="AG12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AH12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AK10" s="9" t="s">
+      <c r="AI12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AL10" s="9" t="s">
+      <c r="AJ12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AM10" s="9" t="s">
+      <c r="AK12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AN10" s="9" t="s">
+      <c r="AL12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AO10" s="9" t="s">
+      <c r="AM12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AP10" s="9" t="s">
+      <c r="AN12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AQ10" s="9" t="s">
+      <c r="AO12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AR10" s="9" t="s">
+      <c r="AP12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AS10" s="9" t="s">
+      <c r="AQ12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AT10" s="9" t="s">
+      <c r="AR12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AU10" s="9" t="s">
+      <c r="AS12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AV10" s="9" t="s">
+      <c r="AT12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AW10" s="9" t="s">
+      <c r="AU12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AX10" s="9" t="s">
+      <c r="AV12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AY10" s="9" t="s">
+      <c r="AW12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AZ10" s="9" t="s">
+      <c r="AX12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BA10" s="9" t="s">
+      <c r="AY12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BB10" s="11"/>
+      <c r="AZ12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB12" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_receivable.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_receivable.xlsx
@@ -100,10 +100,10 @@
     <t xml:space="preserve">Header Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Document Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Journal</t>
+    <t xml:space="preserve">Doc Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc Journal</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Number</t>
@@ -433,8 +433,8 @@
   </sheetPr>
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
